--- a/data/trans_orig/IP04F-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP04F-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4507C931-C5E1-4599-ACEE-B55E6FCA9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B61A2361-373C-476A-B65E-70CA2E60EA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE790C38-C8B2-4CBA-8B3F-3D88562305F3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{350444DC-C27E-4889-8D72-66555E889F42}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="246">
   <si>
     <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
@@ -94,616 +94,622 @@
     <t>93,88%</t>
   </si>
   <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2016 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2015 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1181,7 +1187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785AC53C-C664-49F1-B833-4856EDB9FD72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659438A0-0FF3-448A-8C91-4D2DF266C7D5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2343,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E40DFA6-4D21-465B-8377-C6F590F561D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E9628B-E391-4CA6-AD3F-6776977F0175}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2739,13 +2745,13 @@
         <v>186003</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M9" s="7">
         <v>642</v>
@@ -2754,13 +2760,13 @@
         <v>424886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2781,13 @@
         <v>17770</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -2790,13 +2796,13 @@
         <v>22272</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -2805,13 +2811,13 @@
         <v>40042</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2900,7 +2906,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2915,7 +2921,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2936,13 @@
         <v>170535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>254</v>
@@ -2945,13 +2951,13 @@
         <v>176404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>491</v>
@@ -2960,13 +2966,13 @@
         <v>346939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2987,13 @@
         <v>14605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2996,13 +3002,13 @@
         <v>11357</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -3011,13 +3017,13 @@
         <v>25962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,7 +3097,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3106,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3121,7 +3127,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3142,13 @@
         <v>154306</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -3151,13 +3157,13 @@
         <v>153213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -3166,13 +3172,13 @@
         <v>307519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3193,13 @@
         <v>17821</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -3202,13 +3208,13 @@
         <v>19564</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -3217,13 +3223,13 @@
         <v>37385</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3348,13 @@
         <v>680466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H21" s="7">
         <v>959</v>
@@ -3357,13 +3363,13 @@
         <v>637596</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M21" s="7">
         <v>1929</v>
@@ -3372,13 +3378,13 @@
         <v>1318062</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3399,13 @@
         <v>57617</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -3408,13 +3414,13 @@
         <v>62296</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>179</v>
@@ -3423,13 +3429,13 @@
         <v>119913</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3948A112-F7C2-4175-BF1D-3D884B384378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCC4AB7-8279-4EEB-886A-38D6E4656E65}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3522,7 +3528,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3629,10 +3635,10 @@
         <v>58503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3644,10 +3650,10 @@
         <v>57369</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3659,10 +3665,10 @@
         <v>115871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3686,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3701,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3737,7 +3743,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3752,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3835,10 +3841,10 @@
         <v>175299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3850,10 +3856,10 @@
         <v>158765</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3865,10 +3871,10 @@
         <v>334063</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3892,7 +3898,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3907,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3922,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3958,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3973,7 +3979,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,10 +4047,10 @@
         <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4056,10 +4062,10 @@
         <v>176945</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4071,10 +4077,10 @@
         <v>379424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4113,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4128,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4179,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,10 +4253,10 @@
         <v>289424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4262,10 +4268,10 @@
         <v>260633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4277,10 +4283,10 @@
         <v>550057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4304,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4319,7 +4325,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4334,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4370,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4385,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,10 +4459,10 @@
         <v>725704</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -4468,10 +4474,10 @@
         <v>653712</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -4483,10 +4489,10 @@
         <v>1379416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -4510,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4525,7 +4531,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4540,7 +4546,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4576,7 +4582,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4591,7 +4597,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
